--- a/book/management/commands/uploads/book_list.xlsx
+++ b/book/management/commands/uploads/book_list.xlsx
@@ -1,138 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Book Title</t>
-  </si>
-  <si>
-    <t>Subtitle</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>Book Description</t>
-  </si>
-  <si>
-    <t>Category Name</t>
-  </si>
-  <si>
-    <t>Book Edition</t>
-  </si>
-  <si>
-    <t>Total Page</t>
-  </si>
-  <si>
-    <t>Publisher Name</t>
-  </si>
-  <si>
-    <t>Publisher Description</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Number Of Items</t>
-  </si>
-  <si>
-    <t>Book Cover Photo Name</t>
-  </si>
-  <si>
-    <t>Base Price</t>
-  </si>
-  <si>
-    <t>Initial Payable Rent Price</t>
-  </si>
-  <si>
-    <t>Initial Payable Buy Price</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Author Name</t>
-  </si>
-  <si>
-    <t>Author Description</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Science</t>
-  </si>
-  <si>
-    <t>On most books, the ISBN number can be found on the back cover, next to the barcode. If a book doesn't show the ISBN on the back cover, look on the page featuring the copyright and publisher information and the ISBN will be found there.</t>
-  </si>
-  <si>
-    <t>Computer Science and Engineering</t>
-  </si>
-  <si>
-    <t>Dibbya Prokashoni</t>
-  </si>
-  <si>
-    <t>1238765398756.png</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Computer, CSE, Science</t>
-  </si>
-  <si>
-    <t>Jonathon Hack</t>
-  </si>
-  <si>
-    <t>Bengali</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Published Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Of Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Cover Photo Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Payable Rent Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Payable Buy Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On most books, the ISBN number can be found on the back cover, next to the barcode. If a book doesn't show the ISBN on the back cover, look on the page featuring the copyright and publisher information and the ISBN will be found there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science and Engineering1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibbya Prokashoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1238765398756.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer, CSE, Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathon Hack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="M\-D\-YYYY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF777777"/>
-      <name val="Sans-serif"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="&quot;Helvetica Neue&quot;"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,76 +181,186 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="9">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF777777"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="15.0"/>
-    <col customWidth="1" min="7" max="7" width="11.43"/>
-    <col customWidth="1" min="10" max="10" width="18.57"/>
-    <col customWidth="1" min="13" max="13" width="19.0"/>
-    <col customWidth="1" min="21" max="21" width="215.57"/>
-    <col customWidth="1" min="23" max="23" width="215.57"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="14" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="213.15306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="213.15306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -280,15 +431,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D2" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -296,11 +447,11 @@
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500.0</v>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
@@ -308,23 +459,23 @@
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7.0</v>
+      <c r="K2" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>450.0</v>
+      <c r="N2" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>450</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>26</v>
@@ -348,15 +499,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D3" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -364,11 +515,11 @@
       <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>500.0</v>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -376,28 +527,28 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.0</v>
+      <c r="K3" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>450.0</v>
+      <c r="N3" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -416,15 +567,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D4" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -432,11 +583,11 @@
       <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>500.0</v>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
@@ -444,28 +595,28 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>7.0</v>
+      <c r="K4" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>450.0</v>
+      <c r="N4" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="6" t="s">
@@ -484,15 +635,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D5" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -500,11 +651,11 @@
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>500.0</v>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -512,29 +663,29 @@
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.0</v>
+      <c r="K5" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>450.0</v>
+      <c r="N5" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
+      <c r="R5" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>28</v>
@@ -552,15 +703,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D6" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -568,11 +719,11 @@
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>500.0</v>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
@@ -580,29 +731,29 @@
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7.0</v>
+      <c r="K6" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>450.0</v>
+      <c r="N6" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>30</v>
+      <c r="R6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>28</v>
@@ -620,15 +771,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D7" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -636,11 +787,11 @@
       <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>500.0</v>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
@@ -648,29 +799,29 @@
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7.0</v>
+      <c r="K7" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>450.0</v>
+      <c r="N7" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>30</v>
+      <c r="R7" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>28</v>
@@ -688,15 +839,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D8" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -704,11 +855,11 @@
       <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>500.0</v>
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>24</v>
@@ -716,29 +867,29 @@
       <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7.0</v>
+      <c r="K8" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>450.0</v>
+      <c r="N8" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>30</v>
+      <c r="R8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>28</v>
@@ -756,15 +907,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.238765398756E12</v>
+      <c r="D9" s="1" t="n">
+        <v>1238765398756</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -772,11 +923,11 @@
       <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>500.0</v>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>24</v>
@@ -784,29 +935,29 @@
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="4">
-        <v>42654.0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7.0</v>
+      <c r="K9" s="4" t="n">
+        <v>42654</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="1">
-        <v>560.0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>450.0</v>
+      <c r="N9" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>450</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>30</v>
+      <c r="R9" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>28</v>
@@ -825,6 +976,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/book/management/commands/uploads/book_list.xlsx
+++ b/book/management/commands/uploads/book_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -110,6 +110,27 @@
   </si>
   <si>
     <t xml:space="preserve">Jonathon Hack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science7</t>
   </si>
 </sst>
 </file>
@@ -120,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M\-D\-YYYY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,11 +190,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,11 +269,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,23 +353,23 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="14" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="213.15306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="213.15306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="20" min="14" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="210.857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="210.857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +513,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -548,7 +560,7 @@
       <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -569,7 +581,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -616,7 +628,7 @@
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S4" s="6" t="s">
@@ -637,7 +649,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -684,7 +696,7 @@
       <c r="Q5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="6" t="s">
@@ -705,7 +717,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -752,7 +764,7 @@
       <c r="Q6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S6" s="6" t="s">
@@ -773,7 +785,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -820,7 +832,7 @@
       <c r="Q7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="6" t="s">
@@ -841,7 +853,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -888,7 +900,7 @@
       <c r="Q8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="6" t="s">
@@ -909,7 +921,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -956,7 +968,7 @@
       <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="S9" s="6" t="s">
